--- a/Team-Data/2014-15/4-9-2014-15.xlsx
+++ b/Team-Data/2014-15/4-9-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -777,10 +844,10 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>11</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -989,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1120,7 +1187,7 @@
         <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>16</v>
@@ -1141,7 +1208,7 @@
         <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1329,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1353,7 +1420,7 @@
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.595</v>
+        <v>0.59</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L6" t="n">
         <v>7.8</v>
@@ -1424,25 +1491,25 @@
         <v>22.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O6" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.784</v>
       </c>
       <c r="R6" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S6" t="n">
         <v>33.9</v>
       </c>
       <c r="T6" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="U6" t="n">
         <v>21.8</v>
@@ -1451,31 +1518,31 @@
         <v>14</v>
       </c>
       <c r="W6" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
         <v>5.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA6" t="n">
         <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,16 +1551,16 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1535,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1666,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1684,16 +1751,16 @@
         <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
@@ -1705,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>14</v>
@@ -1723,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
         <v>47</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.61</v>
+        <v>0.603</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,7 +1843,7 @@
         <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
@@ -1788,7 +1855,7 @@
         <v>25.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O8" t="n">
         <v>16.7</v>
@@ -1797,28 +1864,28 @@
         <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.1</v>
       </c>
       <c r="X8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y8" t="n">
         <v>3.8</v>
@@ -1836,7 +1903,7 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1866,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
@@ -1875,16 +1942,16 @@
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
@@ -2051,7 +2118,7 @@
         <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
@@ -2063,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2254,7 +2321,7 @@
         <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>16</v>
@@ -2269,7 +2336,7 @@
         <v>9</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2325,7 +2392,7 @@
         <v>87.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L11" t="n">
         <v>10.7</v>
@@ -2337,13 +2404,13 @@
         <v>0.396</v>
       </c>
       <c r="O11" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P11" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
@@ -2367,13 +2434,13 @@
         <v>6.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB11" t="n">
         <v>109.6</v>
@@ -2382,7 +2449,7 @@
         <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2424,7 +2491,7 @@
         <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2442,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
         <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.675</v>
+        <v>0.679</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K12" t="n">
         <v>0.442</v>
@@ -2516,34 +2583,34 @@
         <v>33</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P12" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S12" t="n">
         <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>22.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
         <v>4.8</v>
@@ -2552,28 +2619,28 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2585,7 +2652,7 @@
         <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2597,16 +2664,16 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
@@ -2633,13 +2700,13 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>0.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>20</v>
@@ -2758,7 +2825,7 @@
         <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2776,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
@@ -2785,7 +2852,7 @@
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -2940,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
@@ -2964,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -3032,55 +3099,55 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>0.26</v>
+        <v>0.256</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
         <v>20.8</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3155,13 +3222,13 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
@@ -3179,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
         <v>35</v>
       </c>
       <c r="F17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>0.443</v>
+        <v>0.449</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,34 +3481,34 @@
         <v>35.1</v>
       </c>
       <c r="J17" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L17" t="n">
         <v>6.8</v>
       </c>
       <c r="M17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N17" t="n">
         <v>0.335</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="Q17" t="n">
         <v>0.745</v>
       </c>
       <c r="R17" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="S17" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T17" t="n">
         <v>38.8</v>
@@ -3453,40 +3520,40 @@
         <v>14.9</v>
       </c>
       <c r="W17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y17" t="n">
         <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -3495,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3507,10 +3574,10 @@
         <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3528,16 +3595,16 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
         <v>12</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
@@ -3677,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3704,7 +3771,7 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,7 +3917,7 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" t="n">
         <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>0.532</v>
+        <v>0.538</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
         <v>0.457</v>
@@ -3972,37 +4039,37 @@
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.759</v>
+        <v>0.754</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
         <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,25 +4078,25 @@
         <v>18.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
@@ -4038,10 +4105,10 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4056,10 +4123,10 @@
         <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
@@ -4074,13 +4141,13 @@
         <v>10</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>1.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4396,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -4488,70 +4555,70 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
         <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>0.325</v>
+        <v>0.321</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="P23" t="n">
         <v>19.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="R23" t="n">
         <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>20.9</v>
@@ -4560,13 +4627,13 @@
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4584,19 +4651,19 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4608,19 +4675,19 @@
         <v>24</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>13</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4833,7 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4781,16 +4848,16 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
         <v>5</v>
@@ -4966,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="AP25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" t="n">
         <v>51</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.646</v>
+        <v>0.654</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J26" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
         <v>27.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O26" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P26" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="R26" t="n">
         <v>10.8</v>
@@ -5082,10 +5149,10 @@
         <v>35.3</v>
       </c>
       <c r="T26" t="n">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
       <c r="U26" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V26" t="n">
         <v>13.6</v>
@@ -5103,34 +5170,34 @@
         <v>18.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB26" t="n">
         <v>103</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5163,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.671</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,25 +5483,25 @@
         <v>39.1</v>
       </c>
       <c r="J28" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O28" t="n">
         <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.779</v>
@@ -5446,13 +5513,13 @@
         <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W28" t="n">
         <v>8.1</v>
@@ -5470,22 +5537,22 @@
         <v>19.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC28" t="n">
         <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5506,19 +5573,19 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
@@ -5530,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>10</v>
@@ -5539,7 +5606,7 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
@@ -5679,7 +5746,7 @@
         <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5706,10 +5773,10 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
@@ -5724,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>17</v>
@@ -5888,7 +5955,7 @@
         <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU30" t="n">
         <v>30</v>
@@ -5900,7 +5967,7 @@
         <v>17</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
@@ -5909,7 +5976,7 @@
         <v>11</v>
       </c>
       <c r="BA30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>1.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6055,7 +6122,7 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
         <v>22</v>
@@ -6088,7 +6155,7 @@
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-9-2014-15</t>
+          <t>2015-04-09</t>
         </is>
       </c>
     </row>
